--- a/VirtualMe总表.xlsx
+++ b/VirtualMe总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningMaterials\智能软件工程组\意图预测\iseg-ide-sub1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63E8772-A546-4D01-AF69-95B6FCE05217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E483F7BC-606F-4722-8A97-42AE065B4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,18 +423,6 @@
   </si>
   <si>
     <t>人智交互频率。例如平均多久使用一次AI，就像每隔多久解锁一次手机一样。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性化服务：研发问答，同一个问题不同的回答(continue);其他场景，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找场景证明任务提升：代码修复原因分析、代码补全、光标预测、代码生成(依赖+行为)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容层面的，工件附带范围，加上knowledge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1005,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1149,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="20" t="s">
         <v>59</v>
@@ -1169,7 +1157,7 @@
       <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="14" t="s" ph="1">
         <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1178,9 +1166,7 @@
       <c r="F11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>94</v>
-      </c>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
@@ -1197,9 +1183,7 @@
       <c r="F12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>93</v>
-      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
@@ -1259,9 +1243,7 @@
       <c r="F16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
@@ -1333,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1429,13 +1411,13 @@
       <c r="B28" s="20"/>
       <c r="C28" s="3"/>
       <c r="D28" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.3">
@@ -1620,7 +1602,7 @@
         <v>32</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1634,7 +1616,7 @@
       <c r="A43" s="22"/>
       <c r="B43" s="20"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -1648,7 +1630,7 @@
       <c r="A44" s="22"/>
       <c r="B44" s="20"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="3" t="s">
